--- a/resources/_gen/assets/Professor_Proposes_Data.xlsx
+++ b/resources/_gen/assets/Professor_Proposes_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nataliesouza/Documents/DataScience/website/resources/_gen/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C694C5D9-1D66-F54D-9C0F-35FBF05A4870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC3088B-097E-8E40-9F6D-25327F95E118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="67">
   <si>
     <t>Carat</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>v</t>
   </si>
   <si>
     <t>L</t>
@@ -237,7 +234,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -335,11 +332,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -708,16 +705,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>4</v>
@@ -2309,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>8</v>
@@ -2471,16 +2468,16 @@
         <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>11</v>
@@ -2500,16 +2497,16 @@
         <v>1.06</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>8</v>
@@ -2529,10 +2526,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>11</v>
@@ -2561,7 +2558,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>11</v>
@@ -2590,13 +2587,13 @@
         <v>15</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>8</v>
@@ -2619,13 +2616,13 @@
         <v>15</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2648,7 +2645,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>8</v>
@@ -2677,13 +2674,13 @@
         <v>18</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>8</v>
@@ -2706,7 +2703,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>13</v>
@@ -2735,7 +2732,7 @@
         <v>6</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>11</v>
@@ -2761,10 +2758,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>13</v>
@@ -2793,7 +2790,7 @@
         <v>18</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>13</v>
@@ -2822,13 +2819,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>8</v>
@@ -2851,13 +2848,13 @@
         <v>15</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>8</v>
@@ -2880,13 +2877,13 @@
         <v>18</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>11</v>
@@ -2909,13 +2906,13 @@
         <v>11</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>8</v>
@@ -2938,13 +2935,13 @@
         <v>11</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>8</v>
@@ -2964,16 +2961,16 @@
         <v>1.01</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>8</v>
@@ -2996,7 +2993,7 @@
         <v>11</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>13</v>
@@ -3025,13 +3022,13 @@
         <v>18</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>8</v>
@@ -3054,13 +3051,13 @@
         <v>6</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>8</v>
@@ -3083,13 +3080,13 @@
         <v>6</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>8</v>
@@ -3112,13 +3109,13 @@
         <v>6</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>8</v>
@@ -3141,7 +3138,7 @@
         <v>6</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>6</v>
@@ -3170,13 +3167,13 @@
         <v>6</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>8</v>
@@ -3196,10 +3193,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>13</v>
@@ -3228,13 +3225,13 @@
         <v>15</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>8</v>
@@ -3257,13 +3254,13 @@
         <v>20</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>8</v>
@@ -3286,13 +3283,13 @@
         <v>20</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -3312,10 +3309,10 @@
         <v>1.21</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>13</v>
@@ -3341,16 +3338,16 @@
         <v>1</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>8</v>
@@ -3373,13 +3370,13 @@
         <v>6</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>8</v>
@@ -3402,7 +3399,7 @@
         <v>18</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>13</v>
@@ -3431,13 +3428,13 @@
         <v>11</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -3457,16 +3454,16 @@
         <v>1.04</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -3489,13 +3486,13 @@
         <v>15</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>8</v>
@@ -3518,7 +3515,7 @@
         <v>20</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>13</v>
@@ -3547,13 +3544,13 @@
         <v>18</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3576,7 +3573,7 @@
         <v>8</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>13</v>
@@ -3602,16 +3599,16 @@
         <v>1.02</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>8</v>
@@ -3634,7 +3631,7 @@
         <v>11</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>8</v>
@@ -3663,7 +3660,7 @@
         <v>8</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>13</v>
@@ -3692,13 +3689,13 @@
         <v>11</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>8</v>
@@ -3721,7 +3718,7 @@
         <v>11</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>8</v>
@@ -3750,13 +3747,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3779,13 +3776,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3808,13 +3805,13 @@
         <v>6</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>8</v>
@@ -3837,13 +3834,13 @@
         <v>18</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3866,13 +3863,13 @@
         <v>15</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>8</v>
@@ -3892,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>7</v>
@@ -3901,7 +3898,7 @@
         <v>13</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>8</v>
@@ -3921,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>7</v>
@@ -3930,7 +3927,7 @@
         <v>11</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>8</v>
@@ -3953,13 +3950,13 @@
         <v>11</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>8</v>
@@ -3979,16 +3976,16 @@
         <v>1.07</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>8</v>
@@ -4011,13 +4008,13 @@
         <v>18</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -4040,7 +4037,7 @@
         <v>15</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>11</v>
@@ -4069,7 +4066,7 @@
         <v>6</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>11</v>
@@ -4095,10 +4092,10 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>13</v>
@@ -4124,10 +4121,10 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>13</v>
@@ -4156,7 +4153,7 @@
         <v>8</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>13</v>
@@ -4182,16 +4179,16 @@
         <v>1.21</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>8</v>
@@ -4214,13 +4211,13 @@
         <v>20</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>8</v>
@@ -4243,7 +4240,7 @@
         <v>8</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>13</v>
@@ -4272,7 +4269,7 @@
         <v>8</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>11</v>
@@ -4301,7 +4298,7 @@
         <v>15</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>13</v>
@@ -4330,7 +4327,7 @@
         <v>8</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>6</v>
@@ -4359,13 +4356,13 @@
         <v>18</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -4394,7 +4391,7 @@
         <v>8</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -4423,7 +4420,7 @@
         <v>13</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -4446,7 +4443,7 @@
         <v>18</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>13</v>
@@ -4475,13 +4472,13 @@
         <v>6</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -4504,13 +4501,13 @@
         <v>6</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>8</v>
@@ -4530,7 +4527,7 @@
         <v>1.02</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>16</v>
@@ -4539,7 +4536,7 @@
         <v>6</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>13</v>
@@ -4562,13 +4559,13 @@
         <v>11</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -4591,7 +4588,7 @@
         <v>20</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>8</v>
@@ -4620,7 +4617,7 @@
         <v>8</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>13</v>
@@ -4655,7 +4652,7 @@
         <v>8</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -4678,13 +4675,13 @@
         <v>20</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>8</v>
@@ -4707,7 +4704,7 @@
         <v>17</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>11</v>
@@ -4736,7 +4733,7 @@
         <v>6</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>13</v>
@@ -4771,7 +4768,7 @@
         <v>13</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>8</v>
@@ -4800,7 +4797,7 @@
         <v>6</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -4829,7 +4826,7 @@
         <v>13</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -4849,7 +4846,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>7</v>
@@ -4881,7 +4878,7 @@
         <v>8</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>13</v>
@@ -4910,13 +4907,13 @@
         <v>11</v>
       </c>
       <c r="C146" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4945,7 +4942,7 @@
         <v>13</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4968,13 +4965,13 @@
         <v>20</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>8</v>
@@ -4997,7 +4994,7 @@
         <v>8</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>13</v>
@@ -5032,7 +5029,7 @@
         <v>13</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -5055,13 +5052,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>8</v>
@@ -5084,13 +5081,13 @@
         <v>17</v>
       </c>
       <c r="C152" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>13</v>
@@ -5119,7 +5116,7 @@
         <v>13</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -5142,7 +5139,7 @@
         <v>18</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>13</v>
@@ -5168,7 +5165,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>19</v>
@@ -5177,7 +5174,7 @@
         <v>13</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>8</v>
@@ -5226,10 +5223,10 @@
         <v>1.26</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>13</v>
@@ -5258,13 +5255,13 @@
         <v>17</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>8</v>
@@ -5287,13 +5284,13 @@
         <v>17</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>8</v>
@@ -5322,7 +5319,7 @@
         <v>8</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -5351,7 +5348,7 @@
         <v>8</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -5374,13 +5371,13 @@
         <v>6</v>
       </c>
       <c r="C162" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>8</v>
@@ -5400,7 +5397,7 @@
         <v>1.01</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>7</v>
@@ -5438,7 +5435,7 @@
         <v>6</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>8</v>
@@ -5467,7 +5464,7 @@
         <v>8</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>8</v>
@@ -5490,7 +5487,7 @@
         <v>8</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>6</v>
@@ -5519,13 +5516,13 @@
         <v>17</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>8</v>
@@ -5545,7 +5542,7 @@
         <v>1.23</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>7</v>
@@ -5583,7 +5580,7 @@
         <v>11</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>8</v>
@@ -5606,13 +5603,13 @@
         <v>20</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>8</v>
@@ -5641,7 +5638,7 @@
         <v>13</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -5670,7 +5667,7 @@
         <v>6</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -5699,7 +5696,7 @@
         <v>13</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -5728,7 +5725,7 @@
         <v>13</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -5757,7 +5754,7 @@
         <v>6</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -5786,7 +5783,7 @@
         <v>6</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -5815,7 +5812,7 @@
         <v>13</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>8</v>
@@ -5838,13 +5835,13 @@
         <v>20</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -5867,7 +5864,7 @@
         <v>8</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>13</v>
@@ -5902,7 +5899,7 @@
         <v>13</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -5931,7 +5928,7 @@
         <v>8</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>8</v>
@@ -5954,13 +5951,13 @@
         <v>18</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>8</v>
@@ -5989,7 +5986,7 @@
         <v>8</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>8</v>
@@ -6012,13 +6009,13 @@
         <v>15</v>
       </c>
       <c r="C184" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>8</v>
@@ -6047,7 +6044,7 @@
         <v>6</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -6070,13 +6067,13 @@
         <v>20</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -6096,10 +6093,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>11</v>
@@ -6128,7 +6125,7 @@
         <v>20</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>13</v>
@@ -6154,16 +6151,16 @@
         <v>1.03</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C189" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>8</v>
@@ -6186,13 +6183,13 @@
         <v>20</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>8</v>
@@ -6215,13 +6212,13 @@
         <v>20</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>8</v>
@@ -6244,13 +6241,13 @@
         <v>20</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>8</v>
@@ -6270,16 +6267,16 @@
         <v>1.22</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -6302,7 +6299,7 @@
         <v>8</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>13</v>
@@ -6331,13 +6328,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -6360,13 +6357,13 @@
         <v>15</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>8</v>
@@ -6389,13 +6386,13 @@
         <v>20</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -6415,10 +6412,10 @@
         <v>1.23</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>13</v>
@@ -6453,7 +6450,7 @@
         <v>11</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -6476,13 +6473,13 @@
         <v>11</v>
       </c>
       <c r="C200" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E200" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -6505,7 +6502,7 @@
         <v>18</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>13</v>
@@ -6534,13 +6531,13 @@
         <v>18</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>8</v>
@@ -6560,16 +6557,16 @@
         <v>1.33</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="D203" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>8</v>
@@ -6592,7 +6589,7 @@
         <v>11</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>13</v>
@@ -6618,10 +6615,10 @@
         <v>1.58</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>11</v>
@@ -6647,10 +6644,10 @@
         <v>1.04</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>13</v>
@@ -6679,13 +6676,13 @@
         <v>15</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -6708,7 +6705,7 @@
         <v>18</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>8</v>
@@ -6737,13 +6734,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -6763,7 +6760,7 @@
         <v>1.02</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>7</v>
@@ -6772,7 +6769,7 @@
         <v>13</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -6795,13 +6792,13 @@
         <v>18</v>
       </c>
       <c r="C211" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>8</v>
@@ -6824,7 +6821,7 @@
         <v>6</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>13</v>
@@ -6853,13 +6850,13 @@
         <v>15</v>
       </c>
       <c r="C213" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>8</v>
@@ -6879,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>16</v>
@@ -6911,13 +6908,13 @@
         <v>6</v>
       </c>
       <c r="C215" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>8</v>
@@ -6937,7 +6934,7 @@
         <v>1.01</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>14</v>
@@ -6946,7 +6943,7 @@
         <v>11</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -6969,13 +6966,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>11</v>
@@ -6995,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>7</v>
@@ -7027,13 +7024,13 @@
         <v>11</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -7053,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>14</v>
@@ -7062,7 +7059,7 @@
         <v>8</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>8</v>
@@ -7085,13 +7082,13 @@
         <v>17</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -7114,13 +7111,13 @@
         <v>17</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>8</v>
@@ -7143,13 +7140,13 @@
         <v>17</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>8</v>
@@ -7172,7 +7169,7 @@
         <v>15</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>13</v>
@@ -7198,10 +7195,10 @@
         <v>1.41</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>13</v>
@@ -7230,7 +7227,7 @@
         <v>17</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>11</v>
@@ -7256,7 +7253,7 @@
         <v>1.01</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>14</v>
@@ -7265,7 +7262,7 @@
         <v>6</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
@@ -7288,13 +7285,13 @@
         <v>20</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>8</v>
@@ -7314,7 +7311,7 @@
         <v>1</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>7</v>
@@ -7352,7 +7349,7 @@
         <v>11</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>8</v>
@@ -7375,13 +7372,13 @@
         <v>11</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>8</v>
@@ -7404,13 +7401,13 @@
         <v>20</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>8</v>
@@ -7430,7 +7427,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>7</v>
@@ -7439,7 +7436,7 @@
         <v>8</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>8</v>
@@ -7459,7 +7456,7 @@
         <v>1.07</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>7</v>
@@ -7491,13 +7488,13 @@
         <v>17</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>13</v>
@@ -7526,7 +7523,7 @@
         <v>13</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
@@ -7549,13 +7546,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>8</v>
@@ -7578,7 +7575,7 @@
         <v>11</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>13</v>
@@ -7607,7 +7604,7 @@
         <v>8</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>13</v>
@@ -7642,7 +7639,7 @@
         <v>11</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
@@ -7671,7 +7668,7 @@
         <v>11</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>8</v>
@@ -7700,7 +7697,7 @@
         <v>13</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>8</v>
@@ -7729,7 +7726,7 @@
         <v>6</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>8</v>
@@ -7758,7 +7755,7 @@
         <v>6</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
@@ -7787,7 +7784,7 @@
         <v>6</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>8</v>
@@ -7816,7 +7813,7 @@
         <v>6</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
@@ -7845,7 +7842,7 @@
         <v>10</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
@@ -7874,7 +7871,7 @@
         <v>10</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>8</v>
@@ -7903,7 +7900,7 @@
         <v>13</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>8</v>
@@ -7932,7 +7929,7 @@
         <v>13</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
@@ -7961,7 +7958,7 @@
         <v>13</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>8</v>
@@ -7990,7 +7987,7 @@
         <v>13</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>8</v>
@@ -8019,7 +8016,7 @@
         <v>10</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>8</v>
@@ -8048,7 +8045,7 @@
         <v>8</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
@@ -8077,7 +8074,7 @@
         <v>10</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>8</v>
@@ -8106,7 +8103,7 @@
         <v>13</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>8</v>
@@ -8135,7 +8132,7 @@
         <v>10</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>8</v>
@@ -8164,7 +8161,7 @@
         <v>13</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>8</v>
@@ -8193,7 +8190,7 @@
         <v>10</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>8</v>
@@ -8222,7 +8219,7 @@
         <v>8</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>8</v>
@@ -8251,7 +8248,7 @@
         <v>8</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>8</v>
@@ -8280,7 +8277,7 @@
         <v>13</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>8</v>
@@ -8309,7 +8306,7 @@
         <v>10</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
@@ -8338,7 +8335,7 @@
         <v>6</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
@@ -8367,7 +8364,7 @@
         <v>13</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>8</v>
@@ -8396,7 +8393,7 @@
         <v>10</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>8</v>
@@ -8425,7 +8422,7 @@
         <v>6</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>8</v>
@@ -8454,7 +8451,7 @@
         <v>10</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
@@ -8477,13 +8474,13 @@
         <v>20</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
@@ -8512,7 +8509,7 @@
         <v>13</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
@@ -8541,7 +8538,7 @@
         <v>13</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>8</v>
@@ -8570,7 +8567,7 @@
         <v>6</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
@@ -8599,7 +8596,7 @@
         <v>6</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>8</v>
@@ -8628,7 +8625,7 @@
         <v>10</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>8</v>
@@ -8657,7 +8654,7 @@
         <v>13</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>8</v>
@@ -8686,7 +8683,7 @@
         <v>10</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>8</v>
@@ -8715,7 +8712,7 @@
         <v>6</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
@@ -8744,7 +8741,7 @@
         <v>10</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
@@ -8767,13 +8764,13 @@
         <v>11</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
@@ -8802,7 +8799,7 @@
         <v>13</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>8</v>
@@ -8831,7 +8828,7 @@
         <v>6</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>8</v>
@@ -8860,7 +8857,7 @@
         <v>13</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
@@ -8889,7 +8886,7 @@
         <v>10</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>8</v>
@@ -8918,7 +8915,7 @@
         <v>13</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>8</v>
@@ -8970,7 +8967,7 @@
         <v>20</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>13</v>
@@ -8999,7 +8996,7 @@
         <v>20</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>13</v>
@@ -9028,7 +9025,7 @@
         <v>6</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>6</v>
@@ -9144,7 +9141,7 @@
         <v>17</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>13</v>
@@ -9257,7 +9254,7 @@
         <v>0.3</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>19</v>
@@ -9521,7 +9518,7 @@
         <v>17</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>13</v>
@@ -11664,10 +11661,10 @@
         <v>0.3</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>13</v>
@@ -13317,10 +13314,10 @@
         <v>0.3</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>13</v>
@@ -13346,10 +13343,10 @@
         <v>0.3</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>10</v>
@@ -13531,223 +13528,223 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="H1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="Q1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="D2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="D3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="D4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="D5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="G6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="D7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -13758,7 +13755,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" s="2"/>
     </row>
@@ -13766,20 +13763,20 @@
       <c r="A9" s="1"/>
       <c r="E9" s="2"/>
       <c r="G9" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="E10" s="2"/>
       <c r="G10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L10" s="2"/>
     </row>
